--- a/data/fakecsv/dept_ZM.xlsx
+++ b/data/fakecsv/dept_ZM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="107">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,280 +40,274 @@
     <t>ZM</t>
   </si>
   <si>
-    <t>TTDWT1X774TDWA16V</t>
-  </si>
-  <si>
-    <t>00JG5PZ80N0U15KVW</t>
-  </si>
-  <si>
-    <t>F9MGBG461GPVVF58S</t>
-  </si>
-  <si>
-    <t>L102Z2JW7XTLTUL5M</t>
-  </si>
-  <si>
-    <t>4GNUFZL9XRAHNB4FU</t>
-  </si>
-  <si>
-    <t>J3NKMMXC2LWN6UR6S</t>
-  </si>
-  <si>
-    <t>BYVLNF4X0MWF4TM0S</t>
-  </si>
-  <si>
-    <t>0HYHKA5R99U229HAM</t>
-  </si>
-  <si>
-    <t>UFF55BLC7GB0BFPRD</t>
-  </si>
-  <si>
-    <t>MGJST3703C19ZAUAP</t>
-  </si>
-  <si>
-    <t>1P2ZK7VJ5N9398U8V</t>
-  </si>
-  <si>
-    <t>7RWJ87LN1H34BS25P</t>
-  </si>
-  <si>
-    <t>2XSC4LCD2NKLMMFVK</t>
-  </si>
-  <si>
-    <t>7SY4THH5XWRGYRPFT</t>
-  </si>
-  <si>
-    <t>S04KTG7R0W5YCM2L2</t>
-  </si>
-  <si>
-    <t>SH2ZDGZ74J4JT0DAT</t>
-  </si>
-  <si>
-    <t>69BY6SD721H0Y10TP</t>
-  </si>
-  <si>
-    <t>1LERHW078CJU747G3</t>
-  </si>
-  <si>
-    <t>7N0RC3A18NCLE038J</t>
-  </si>
-  <si>
-    <t>LKNMCXM53YU3R6TFX</t>
-  </si>
-  <si>
-    <t>AK2F50SAX63ERGPKL</t>
-  </si>
-  <si>
-    <t>W2CYAFXA3A10ZBYRY</t>
-  </si>
-  <si>
-    <t>Z9L85DVY2ZT09HP2B</t>
-  </si>
-  <si>
-    <t>KH2XRS947K473TZYG</t>
-  </si>
-  <si>
-    <t>5WR2C9ZJX7W2GS78U</t>
-  </si>
-  <si>
-    <t>CUEWPTDFXLKYXRK8S</t>
-  </si>
-  <si>
-    <t>EDS4UAA39S0WBW1M2</t>
-  </si>
-  <si>
-    <t>0GKM0TJ235F7G271R</t>
-  </si>
-  <si>
-    <t>5S2NURFB69SFWX74D</t>
-  </si>
-  <si>
-    <t>H2BPAG9H998J2FB2S</t>
-  </si>
-  <si>
-    <t>MR8VHKVG18FBV25XL</t>
-  </si>
-  <si>
-    <t>TX7PPJ4V3HKK783WW</t>
-  </si>
-  <si>
-    <t>33JSPVDY85ER2N6HW</t>
-  </si>
-  <si>
-    <t>YHA7AABW61ELPC7FD</t>
-  </si>
-  <si>
-    <t>KRSB4UZW9PGH1GKB6</t>
-  </si>
-  <si>
-    <t>2JKVW0K272R17Z3T1</t>
-  </si>
-  <si>
-    <t>TZBRWH5N3Y64BU7SV</t>
-  </si>
-  <si>
-    <t>9STDE2W9X0WJ3C72E</t>
-  </si>
-  <si>
-    <t>R75FPMXXXMTD566VJ</t>
-  </si>
-  <si>
-    <t>FXJ3RWR47P77P8B41</t>
-  </si>
-  <si>
-    <t>78U533328TWCG6R72</t>
-  </si>
-  <si>
-    <t>C41YPVGT39NZSUU3C</t>
-  </si>
-  <si>
-    <t>U3SGKD2W309VCLZJ7</t>
-  </si>
-  <si>
-    <t>XPD484G71KG2W6JUY</t>
-  </si>
-  <si>
-    <t>JWK9ZGJD710WZT5S9</t>
-  </si>
-  <si>
-    <t>HJBV82B443ZWCBJWM</t>
-  </si>
-  <si>
-    <t>Anna Ford</t>
-  </si>
-  <si>
-    <t>Denise Mclean</t>
-  </si>
-  <si>
-    <t>Ms. Lauren Newton</t>
-  </si>
-  <si>
-    <t>Andrew Roberts</t>
-  </si>
-  <si>
-    <t>Ronald Roberts</t>
-  </si>
-  <si>
-    <t>Shawn Mcbride</t>
-  </si>
-  <si>
-    <t>Marc Hart</t>
-  </si>
-  <si>
-    <t>Kelly Wood</t>
-  </si>
-  <si>
-    <t>Carrie Mcintyre</t>
-  </si>
-  <si>
-    <t>Beth Martinez</t>
-  </si>
-  <si>
-    <t>Gregory Mueller</t>
-  </si>
-  <si>
-    <t>Rachel Smith</t>
-  </si>
-  <si>
-    <t>Kyle Jackson</t>
-  </si>
-  <si>
-    <t>James Nichols</t>
-  </si>
-  <si>
-    <t>Kathleen Montgomery</t>
-  </si>
-  <si>
-    <t>Mary Dunn</t>
-  </si>
-  <si>
-    <t>Janet Dixon</t>
-  </si>
-  <si>
-    <t>Barbara Howard</t>
-  </si>
-  <si>
-    <t>Tammy York</t>
-  </si>
-  <si>
-    <t>Patrick Duffy</t>
-  </si>
-  <si>
-    <t>Linda Aguilar</t>
-  </si>
-  <si>
-    <t>Ricky Hahn</t>
-  </si>
-  <si>
-    <t>Blake Wilson</t>
-  </si>
-  <si>
-    <t>Mrs. Katie Calderon</t>
-  </si>
-  <si>
-    <t>Destiny Greene</t>
-  </si>
-  <si>
-    <t>John Carroll</t>
-  </si>
-  <si>
-    <t>Michele Mclaughlin</t>
-  </si>
-  <si>
-    <t>Matthew Bradley</t>
-  </si>
-  <si>
-    <t>Kristy White</t>
-  </si>
-  <si>
-    <t>Lisa Moore</t>
-  </si>
-  <si>
-    <t>Candace Newton</t>
-  </si>
-  <si>
-    <t>Daniel Miller</t>
-  </si>
-  <si>
-    <t>Alex Nguyen</t>
-  </si>
-  <si>
-    <t>Patricia Chang</t>
-  </si>
-  <si>
-    <t>Jennifer Crosby</t>
-  </si>
-  <si>
-    <t>Sonya Glenn</t>
-  </si>
-  <si>
-    <t>Katelyn Rangel</t>
-  </si>
-  <si>
-    <t>Larry Baker</t>
-  </si>
-  <si>
-    <t>Kayla Clark</t>
-  </si>
-  <si>
-    <t>Bob Morris</t>
-  </si>
-  <si>
-    <t>Rodney Baird</t>
-  </si>
-  <si>
-    <t>Andrea Curry</t>
-  </si>
-  <si>
-    <t>Jessica Haas</t>
-  </si>
-  <si>
-    <t>Amy Trujillo</t>
-  </si>
-  <si>
-    <t>Frederick Hunter</t>
-  </si>
-  <si>
-    <t>Mary Mccullough</t>
+    <t>LFJXYYDR6NAVCEJWV</t>
+  </si>
+  <si>
+    <t>HGBWW84J8NH07BC9H</t>
+  </si>
+  <si>
+    <t>A5668U719C1GX4YDY</t>
+  </si>
+  <si>
+    <t>JGMK2C138AH4VALDH</t>
+  </si>
+  <si>
+    <t>CJPFWPV34KJ74VAF0</t>
+  </si>
+  <si>
+    <t>BZKYJT0A89S9RPD0R</t>
+  </si>
+  <si>
+    <t>G6TCZWDL3A3DBZ5GL</t>
+  </si>
+  <si>
+    <t>J3LX9JTC9FJAZJ55U</t>
+  </si>
+  <si>
+    <t>E4D7TVYE6NH12H9SY</t>
+  </si>
+  <si>
+    <t>CP8TF4F9437PVG6CC</t>
+  </si>
+  <si>
+    <t>WWCDRXWE3BHFVP8D9</t>
+  </si>
+  <si>
+    <t>AM3ZG70A2Z4LU8LYC</t>
+  </si>
+  <si>
+    <t>5SGS5KTY6KFDUYDB2</t>
+  </si>
+  <si>
+    <t>2KUMG4AR06X8SK5R5</t>
+  </si>
+  <si>
+    <t>X13GD2MC3PV1Z6222</t>
+  </si>
+  <si>
+    <t>RV0THSKL5V8WG7C00</t>
+  </si>
+  <si>
+    <t>TCLKKYBL9LA4P0GEU</t>
+  </si>
+  <si>
+    <t>SFF6LK7F4L85NZL6D</t>
+  </si>
+  <si>
+    <t>4B82SLSH4MX1FX7VS</t>
+  </si>
+  <si>
+    <t>23VH2KSJ077UVHUYK</t>
+  </si>
+  <si>
+    <t>STWTN1EU7NLX284TP</t>
+  </si>
+  <si>
+    <t>H1LGPER88NKYKNEDU</t>
+  </si>
+  <si>
+    <t>C1PPHUK15GS43KMGM</t>
+  </si>
+  <si>
+    <t>ZVEPW2RU3AUJR79G0</t>
+  </si>
+  <si>
+    <t>WX50TFCN6UT557APS</t>
+  </si>
+  <si>
+    <t>NFLG3SLDXJAF17FCM</t>
+  </si>
+  <si>
+    <t>G1H7K6VS14HFVZJ8H</t>
+  </si>
+  <si>
+    <t>K1668A6Z3ZZNKTK11</t>
+  </si>
+  <si>
+    <t>3VC6K1K24CY6S5XMS</t>
+  </si>
+  <si>
+    <t>BNBCX4C422TWJGK63</t>
+  </si>
+  <si>
+    <t>ZRUWKSNS21B0RYWBY</t>
+  </si>
+  <si>
+    <t>S6XPELVR5BBEXPCNM</t>
+  </si>
+  <si>
+    <t>SSF5ASND90AZN2XBE</t>
+  </si>
+  <si>
+    <t>ZSB8N6JY7U2N4KT85</t>
+  </si>
+  <si>
+    <t>0EK8NGFVX6C7BP6V7</t>
+  </si>
+  <si>
+    <t>Y49F9W6P1LTC9CE9Z</t>
+  </si>
+  <si>
+    <t>5WZ654W774LB6M4RY</t>
+  </si>
+  <si>
+    <t>XCZEK4107LL8Y11WN</t>
+  </si>
+  <si>
+    <t>77079BN68BU1YWBDU</t>
+  </si>
+  <si>
+    <t>ZA551WPE771G1DXW1</t>
+  </si>
+  <si>
+    <t>732PWWN8X58S6AG4W</t>
+  </si>
+  <si>
+    <t>777SP6SV35M74JPT8</t>
+  </si>
+  <si>
+    <t>KXR50CSW730DFY14L</t>
+  </si>
+  <si>
+    <t>3YCJA27MX8AMDBE2Y</t>
+  </si>
+  <si>
+    <t>6U5DH6GG6WGYH8710</t>
+  </si>
+  <si>
+    <t>Angel Koch</t>
+  </si>
+  <si>
+    <t>Taylor Warner</t>
+  </si>
+  <si>
+    <t>Lisa Reeves</t>
+  </si>
+  <si>
+    <t>Kelly Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Sophia West</t>
+  </si>
+  <si>
+    <t>Lisa Gray</t>
+  </si>
+  <si>
+    <t>Patricia Mays</t>
+  </si>
+  <si>
+    <t>Victor Bauer DVM</t>
+  </si>
+  <si>
+    <t>Derrick Smith</t>
+  </si>
+  <si>
+    <t>Christopher Evans</t>
+  </si>
+  <si>
+    <t>Leslie Smith</t>
+  </si>
+  <si>
+    <t>Craig Santos</t>
+  </si>
+  <si>
+    <t>Kristina Smith</t>
+  </si>
+  <si>
+    <t>Mr. Clifford Patterson DVM</t>
+  </si>
+  <si>
+    <t>Troy Williams</t>
+  </si>
+  <si>
+    <t>Kimberly Lyons</t>
+  </si>
+  <si>
+    <t>Bryan Goodwin</t>
+  </si>
+  <si>
+    <t>Richard Watson</t>
+  </si>
+  <si>
+    <t>Bonnie Salas</t>
+  </si>
+  <si>
+    <t>Dana Page</t>
+  </si>
+  <si>
+    <t>Sandra Ferrell</t>
+  </si>
+  <si>
+    <t>Lisa Walton</t>
+  </si>
+  <si>
+    <t>Amanda Simpson</t>
+  </si>
+  <si>
+    <t>Michael Moore</t>
+  </si>
+  <si>
+    <t>William Martin</t>
+  </si>
+  <si>
+    <t>James Vargas</t>
+  </si>
+  <si>
+    <t>Patricia Anderson</t>
+  </si>
+  <si>
+    <t>Daniel Perry</t>
+  </si>
+  <si>
+    <t>Susan Clayton</t>
+  </si>
+  <si>
+    <t>Melinda Vang</t>
+  </si>
+  <si>
+    <t>Annette Moore</t>
+  </si>
+  <si>
+    <t>Melissa Smith</t>
+  </si>
+  <si>
+    <t>Robert Martinez</t>
+  </si>
+  <si>
+    <t>Ronald Peterson</t>
+  </si>
+  <si>
+    <t>Amanda Davis</t>
+  </si>
+  <si>
+    <t>Michael Hall</t>
+  </si>
+  <si>
+    <t>Vanessa Young</t>
+  </si>
+  <si>
+    <t>Jeremy Little</t>
+  </si>
+  <si>
+    <t>Chelsea Collins</t>
+  </si>
+  <si>
+    <t>James Petersen</t>
+  </si>
+  <si>
+    <t>Travis Carr</t>
+  </si>
+  <si>
+    <t>Heather Shaffer</t>
+  </si>
+  <si>
+    <t>James Tate</t>
+  </si>
+  <si>
+    <t>Allison Lewis</t>
+  </si>
+  <si>
+    <t>Patricia Rodriguez</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -698,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,10 +729,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -752,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -766,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -783,13 +777,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -800,13 +794,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -817,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -834,13 +828,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -851,13 +845,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -868,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -888,10 +882,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -902,13 +896,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -919,13 +913,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -936,13 +930,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -953,13 +947,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -970,13 +964,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,13 +981,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,13 +1015,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,13 +1032,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,13 +1049,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,13 +1066,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,13 +1083,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>59</v>
@@ -1140,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -1157,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>59</v>
@@ -1174,7 +1168,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
@@ -1191,13 +1185,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,13 +1202,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,13 +1219,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,13 +1253,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1273,10 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1290,10 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1307,10 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1327,13 +1321,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1344,13 +1338,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,13 +1355,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
         <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1378,13 +1372,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
         <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1395,13 +1389,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1412,13 +1406,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1429,13 +1423,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1446,13 +1440,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1463,13 +1457,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1480,13 +1474,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1497,13 +1491,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1514,13 +1508,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1531,13 +1525,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1548,13 +1542,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1565,13 +1559,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1582,13 +1576,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1599,13 +1593,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1616,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1633,13 +1627,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1650,13 +1644,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1667,13 +1661,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1684,13 +1678,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1701,13 +1695,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1718,13 +1712,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1735,13 +1729,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1752,13 +1746,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1769,13 +1763,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1786,13 +1780,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1803,13 +1797,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1820,13 +1814,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1837,13 +1831,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1854,13 +1848,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1871,13 +1865,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1888,10 +1882,10 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E70" t="s">
         <v>100</v>
@@ -1905,10 +1899,10 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E71" t="s">
         <v>101</v>
@@ -1922,13 +1916,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1939,13 +1933,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1956,13 +1950,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E74" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1973,13 +1967,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1990,13 +1984,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2007,10 +2001,10 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E77" t="s">
         <v>100</v>
@@ -2024,10 +2018,10 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E78" t="s">
         <v>101</v>
@@ -2041,10 +2035,10 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E79" t="s">
         <v>102</v>
@@ -2058,10 +2052,10 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E80" t="s">
         <v>103</v>
@@ -2075,10 +2069,10 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E81" t="s">
         <v>104</v>
@@ -2092,13 +2086,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2109,13 +2103,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2126,13 +2120,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2143,10 +2137,10 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E85" t="s">
         <v>100</v>
@@ -2160,10 +2154,10 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E86" t="s">
         <v>101</v>
@@ -2177,10 +2171,10 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s">
         <v>102</v>
@@ -2194,10 +2188,10 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E88" t="s">
         <v>103</v>
@@ -2211,13 +2205,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2228,13 +2222,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E90" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2245,13 +2239,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2262,13 +2256,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E92" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2279,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E93" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2296,13 +2290,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2313,13 +2307,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2330,13 +2324,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2347,13 +2341,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E97" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2364,13 +2358,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2381,13 +2375,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2398,13 +2392,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2415,13 +2409,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D101" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2432,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E102" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2449,13 +2443,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2466,10 +2460,10 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E104" t="s">
         <v>100</v>
@@ -2483,10 +2477,10 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D105" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E105" t="s">
         <v>101</v>
@@ -2500,10 +2494,10 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D106" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E106" t="s">
         <v>102</v>
@@ -2517,10 +2511,10 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D107" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E107" t="s">
         <v>103</v>
@@ -2534,13 +2528,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2551,13 +2545,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D109" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2568,13 +2562,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2585,13 +2579,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2602,13 +2596,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D112" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E112" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2619,13 +2613,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
         <v>77</v>
       </c>
       <c r="E113" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2636,13 +2630,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E114" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2653,13 +2647,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E115" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2670,7 +2664,7 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
         <v>78</v>
@@ -2687,7 +2681,7 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
         <v>78</v>
@@ -2704,7 +2698,7 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
         <v>78</v>
@@ -2721,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
         <v>78</v>
@@ -2738,13 +2732,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D120" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E120" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2755,13 +2749,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E121" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2772,13 +2766,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D122" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E122" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2789,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D123" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E123" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2806,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E124" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2823,13 +2817,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E125" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2840,13 +2834,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D126" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E126" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2857,13 +2851,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E127" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2874,13 +2868,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D128" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E128" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2891,13 +2885,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D129" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E129" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2908,13 +2902,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2925,13 +2919,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D131" t="s">
         <v>80</v>
       </c>
       <c r="E131" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2942,13 +2936,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D132" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E132" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2959,13 +2953,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D133" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E133" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2976,13 +2970,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E134" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2993,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E135" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3010,13 +3004,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D136" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E136" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3027,13 +3021,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E137" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3044,13 +3038,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E138" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3061,13 +3055,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E139" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3078,13 +3072,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E140" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3095,13 +3089,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D141" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E141" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3112,13 +3106,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E142" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3129,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E143" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3146,13 +3140,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E144" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3163,13 +3157,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E145" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3180,13 +3174,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E146" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3197,13 +3191,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E147" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3214,13 +3208,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E148" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3231,13 +3225,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D149" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E149" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3248,13 +3242,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E150" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3265,13 +3259,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E151" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3282,13 +3276,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D152" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E152" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3299,13 +3293,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D153" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E153" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3316,13 +3310,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D154" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E154" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3333,13 +3327,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D155" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E155" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3350,13 +3344,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E156" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3367,13 +3361,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D157" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E157" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3384,13 +3378,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D158" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E158" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3401,13 +3395,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D159" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E159" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3418,13 +3412,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E160" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3435,13 +3429,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E161" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3452,13 +3446,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D162" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E162" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3469,13 +3463,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D163" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E163" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3486,13 +3480,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D164" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E164" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3503,13 +3497,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D165" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E165" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3520,13 +3514,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D166" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E166" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3537,13 +3531,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E167" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3554,13 +3548,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E168" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3571,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D169" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E169" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3588,13 +3582,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D170" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E170" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3605,13 +3599,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D171" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E171" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3622,13 +3616,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D172" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E172" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3639,13 +3633,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D173" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E173" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3656,13 +3650,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D174" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E174" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3673,13 +3667,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D175" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E175" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3690,13 +3684,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D176" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E176" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3707,13 +3701,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D177" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E177" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3724,13 +3718,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D178" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E178" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3741,13 +3735,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D179" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E179" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3758,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D180" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E180" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3775,13 +3769,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D181" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E181" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3792,10 +3786,10 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D182" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E182" t="s">
         <v>100</v>
@@ -3809,13 +3803,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D183" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E183" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3826,13 +3820,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D184" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E184" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3843,13 +3837,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D185" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E185" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3860,13 +3854,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D186" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E186" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3877,13 +3871,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D187" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E187" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3894,13 +3888,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D188" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E188" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3911,13 +3905,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D189" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E189" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3928,13 +3922,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D190" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E190" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3945,13 +3939,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D191" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E191" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3962,13 +3956,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D192" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E192" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3979,13 +3973,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D193" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E193" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3996,13 +3990,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D194" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E194" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4013,13 +4007,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D195" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E195" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4030,676 +4024,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D196" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E196" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" t="s">
-        <v>6</v>
-      </c>
-      <c r="B197" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197" t="s">
-        <v>45</v>
-      </c>
-      <c r="D197" t="s">
-        <v>91</v>
-      </c>
-      <c r="E197" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
-        <v>6</v>
-      </c>
-      <c r="B198" t="s">
-        <v>7</v>
-      </c>
-      <c r="C198" t="s">
-        <v>45</v>
-      </c>
-      <c r="D198" t="s">
-        <v>91</v>
-      </c>
-      <c r="E198" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199" t="s">
-        <v>45</v>
-      </c>
-      <c r="D199" t="s">
-        <v>91</v>
-      </c>
-      <c r="E199" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" t="s">
-        <v>45</v>
-      </c>
-      <c r="D200" t="s">
-        <v>91</v>
-      </c>
-      <c r="E200" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>6</v>
-      </c>
-      <c r="B201" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" t="s">
-        <v>45</v>
-      </c>
-      <c r="D201" t="s">
-        <v>91</v>
-      </c>
-      <c r="E201" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>6</v>
-      </c>
-      <c r="B202" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" t="s">
-        <v>46</v>
-      </c>
-      <c r="D202" t="s">
-        <v>92</v>
-      </c>
-      <c r="E202" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" t="s">
-        <v>47</v>
-      </c>
-      <c r="D203" t="s">
-        <v>93</v>
-      </c>
-      <c r="E203" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" t="s">
-        <v>47</v>
-      </c>
-      <c r="D204" t="s">
-        <v>93</v>
-      </c>
-      <c r="E204" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
-        <v>6</v>
-      </c>
-      <c r="B205" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" t="s">
-        <v>48</v>
-      </c>
-      <c r="D205" t="s">
-        <v>94</v>
-      </c>
-      <c r="E205" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" t="s">
-        <v>48</v>
-      </c>
-      <c r="D206" t="s">
-        <v>94</v>
-      </c>
-      <c r="E206" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" t="s">
-        <v>48</v>
-      </c>
-      <c r="D207" t="s">
-        <v>94</v>
-      </c>
-      <c r="E207" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" t="s">
-        <v>48</v>
-      </c>
-      <c r="D208" t="s">
-        <v>94</v>
-      </c>
-      <c r="E208" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" t="s">
-        <v>49</v>
-      </c>
-      <c r="D209" t="s">
-        <v>95</v>
-      </c>
-      <c r="E209" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" t="s">
-        <v>49</v>
-      </c>
-      <c r="D210" t="s">
-        <v>95</v>
-      </c>
-      <c r="E210" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" t="s">
-        <v>49</v>
-      </c>
-      <c r="D211" t="s">
-        <v>95</v>
-      </c>
-      <c r="E211" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" t="s">
-        <v>49</v>
-      </c>
-      <c r="D212" t="s">
-        <v>95</v>
-      </c>
-      <c r="E212" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s">
-        <v>50</v>
-      </c>
-      <c r="D213" t="s">
-        <v>96</v>
-      </c>
-      <c r="E213" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
-        <v>50</v>
-      </c>
-      <c r="D214" t="s">
-        <v>96</v>
-      </c>
-      <c r="E214" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
-        <v>50</v>
-      </c>
-      <c r="D215" t="s">
-        <v>96</v>
-      </c>
-      <c r="E215" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>50</v>
-      </c>
-      <c r="D216" t="s">
-        <v>96</v>
-      </c>
-      <c r="E216" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
-        <v>50</v>
-      </c>
-      <c r="D217" t="s">
-        <v>96</v>
-      </c>
-      <c r="E217" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>50</v>
-      </c>
-      <c r="D218" t="s">
-        <v>96</v>
-      </c>
-      <c r="E218" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" t="s">
-        <v>50</v>
-      </c>
-      <c r="D219" t="s">
-        <v>96</v>
-      </c>
-      <c r="E219" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" t="s">
-        <v>50</v>
-      </c>
-      <c r="D220" t="s">
-        <v>96</v>
-      </c>
-      <c r="E220" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" t="s">
-        <v>50</v>
-      </c>
-      <c r="D221" t="s">
-        <v>96</v>
-      </c>
-      <c r="E221" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" t="s">
-        <v>51</v>
-      </c>
-      <c r="D222" t="s">
-        <v>97</v>
-      </c>
-      <c r="E222" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" t="s">
-        <v>51</v>
-      </c>
-      <c r="D223" t="s">
-        <v>97</v>
-      </c>
-      <c r="E223" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" t="s">
-        <v>51</v>
-      </c>
-      <c r="D224" t="s">
-        <v>97</v>
-      </c>
-      <c r="E224" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>7</v>
-      </c>
-      <c r="C225" t="s">
-        <v>51</v>
-      </c>
-      <c r="D225" t="s">
-        <v>97</v>
-      </c>
-      <c r="E225" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226" t="s">
-        <v>51</v>
-      </c>
-      <c r="D226" t="s">
-        <v>97</v>
-      </c>
-      <c r="E226" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>6</v>
-      </c>
-      <c r="B227" t="s">
-        <v>7</v>
-      </c>
-      <c r="C227" t="s">
-        <v>52</v>
-      </c>
-      <c r="D227" t="s">
-        <v>98</v>
-      </c>
-      <c r="E227" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
-        <v>6</v>
-      </c>
-      <c r="B228" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228" t="s">
-        <v>52</v>
-      </c>
-      <c r="D228" t="s">
-        <v>98</v>
-      </c>
-      <c r="E228" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" t="s">
-        <v>6</v>
-      </c>
-      <c r="B229" t="s">
-        <v>7</v>
-      </c>
-      <c r="C229" t="s">
-        <v>52</v>
-      </c>
-      <c r="D229" t="s">
-        <v>98</v>
-      </c>
-      <c r="E229" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
-        <v>6</v>
-      </c>
-      <c r="B230" t="s">
-        <v>7</v>
-      </c>
-      <c r="C230" t="s">
-        <v>52</v>
-      </c>
-      <c r="D230" t="s">
-        <v>98</v>
-      </c>
-      <c r="E230" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
-        <v>6</v>
-      </c>
-      <c r="B231" t="s">
-        <v>7</v>
-      </c>
-      <c r="C231" t="s">
-        <v>52</v>
-      </c>
-      <c r="D231" t="s">
-        <v>98</v>
-      </c>
-      <c r="E231" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" t="s">
-        <v>6</v>
-      </c>
-      <c r="B232" t="s">
-        <v>7</v>
-      </c>
-      <c r="C232" t="s">
-        <v>52</v>
-      </c>
-      <c r="D232" t="s">
-        <v>98</v>
-      </c>
-      <c r="E232" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" t="s">
-        <v>6</v>
-      </c>
-      <c r="B233" t="s">
-        <v>7</v>
-      </c>
-      <c r="C233" t="s">
-        <v>53</v>
-      </c>
-      <c r="D233" t="s">
-        <v>99</v>
-      </c>
-      <c r="E233" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
-        <v>6</v>
-      </c>
-      <c r="B234" t="s">
-        <v>7</v>
-      </c>
-      <c r="C234" t="s">
-        <v>53</v>
-      </c>
-      <c r="D234" t="s">
-        <v>99</v>
-      </c>
-      <c r="E234" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
-        <v>6</v>
-      </c>
-      <c r="B235" t="s">
-        <v>7</v>
-      </c>
-      <c r="C235" t="s">
-        <v>53</v>
-      </c>
-      <c r="D235" t="s">
-        <v>99</v>
-      </c>
-      <c r="E235" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
